--- a/biology/Médecine/CIM-10_Chapitre_02___Tumeurs/CIM-10_Chapitre_02___Tumeurs.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_02___Tumeurs/CIM-10_Chapitre_02___Tumeurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le Chapitre 02 : Tumeurs de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le Chapitre 02 : Tumeurs de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS).
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(C00-C14) Tumeurs malignes, lèvre, cavité buccale et pharynx
-(C00) Néoplasie maligne de la lèvre
+          <t>(C00-C14) Tumeurs malignes, lèvre, cavité buccale et pharynx</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(C00) Néoplasie maligne de la lèvre
 (C00.0) Lèvre supérieure, bord libre
 (C00.1) Lèvre inférieure, bord libre
 (C00.2) Lèvre, sans précision, bord libre
@@ -590,9 +607,43 @@
 (C14) Tumeur maligne de la lèvre, de la cavité buccale et du pharynx, de sièges autres et mal définis
 (C14.0) Pharynx, sans précision
 (C14.2) Anneau de Waldeyer
-(C14.8) Lésion à localisations contiguës de la lèvre, de la cavité buccale et du pharynx
-(C15-C26) Tumeurs malignes, organes digestifs
-(C15) Tumeur maligne de l'œsophage
+(C14.8) Lésion à localisations contiguës de la lèvre, de la cavité buccale et du pharynx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(C15-C26) Tumeurs malignes, organes digestifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(C15) Tumeur maligne de l'œsophage
 (C15.0) Œsophage cervical
 (C15.1) Œsophage thoracique
 (C15.2) Œsophage abdominal
@@ -671,9 +722,43 @@
 (C26.0) Tractus intestinal, partie non précisée
 (C26.1) Rate
 (C26.8) Lésion à localisations contiguës de l'appareil digestif
-(C26.9) Sièges mal définis de l'appareil digestif
-(C30-C39) Tumeurs malignes, organes respiratoires et intrathoraciques
-(C30) Tumeur maligne des fosses nasales et de l'oreille moyenne
+(C26.9) Sièges mal définis de l'appareil digestif</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(C30-C39) Tumeurs malignes, organes respiratoires et intrathoraciques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(C30) Tumeur maligne des fosses nasales et de l'oreille moyenne
 (C30.0) Fosses nasales
 (C30.1) Oreille moyenne
 (C31) Tumeur maligne des sinus de la face
@@ -709,9 +794,43 @@
 (C39) Tumeur maligne de l'appareil respiratoire et des organes intrathoraciques, de sièges autres et mal défini
 (C39.0) Voies respiratoires supérieures, partie non précisée
 (C39.8) Lésion à localisations contiguës des organes respiratoires et intrathoraciques
-(C39.9) Sièges mal définis de l'appareil respiratoire
-(C40-C41) Tumeurs malignes, os et cartilage articulaire
-(C40) Tumeur maligne des os et du cartilage articulaire des membres
+(C39.9) Sièges mal définis de l'appareil respiratoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(C40-C41) Tumeurs malignes, os et cartilage articulaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(C40) Tumeur maligne des os et du cartilage articulaire des membres
 (C40.0) Omoplate et os longs du membre supérieur
 (C40.1) Os courts du membre supérieur
 (C40.2) Os longs du membre inférieur
@@ -725,9 +844,43 @@
 (C41.3) Côtes, sternum et clavicule
 (C41.4) Pelvis, sacrum et coccyx
 (C41.8) Lésion à localisations contiguës des os et du cartilage articulaire
-(C41.9) Os et cartilage articulaire, sans précision
-(C43-C44) Tumeurs malignes, peau
-(C43) Mélanome malin de la peau
+(C41.9) Os et cartilage articulaire, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(C43-C44) Tumeurs malignes, peau</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(C43) Mélanome malin de la peau
 (C43.0) Mélanome malin de la lèvre
 (C43.1) Mélanome malin de la paupière, y compris le canthus
 (C43.2) Mélanome malin de l'oreille et du conduit auditif externe
@@ -748,9 +901,43 @@
 (C44.6) Peau du membre supérieur, y compris l'épaule
 (C44.7) Peau du membre inférieur, y compris la hanche
 (C44.8) Lésion à localisations contiguës de la peau
-(C44.9) Tumeur maligne de la peau, sans précision
-(C45-C49) Tissu mésothélial et tissus mous
-(C45) Mésothéliome
+(C44.9) Tumeur maligne de la peau, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(C45-C49) Tissu mésothélial et tissus mous</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(C45) Mésothéliome
 (C45.0) Mésothéliome de la plèvre
 (C45.1) Mésothéliome du péritoine
 (C45.2) Mésothéliome du péricarde
@@ -798,9 +985,43 @@
 (C45.58) Tissu conjonctif et autres tissus mous du pelvis
 (C49.6) Tissu conjonctif et autres tissus mous du tronc, sans précision
 (C49.8) Lésion à localisations contiguës du tissu conjonctif et des autres tissus mous
-(C49.9) Tissu conjonctif et autres tissus mous, sans précision
-(C50-C58) Tumeurs malignes, seins, organes génitaux de la femme
-(C50) Tumeur maligne du sein
+(C49.9) Tissu conjonctif et autres tissus mous, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(C50-C58) Tumeurs malignes, seins, organes génitaux de la femme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(C50) Tumeur maligne du sein
 (C50.0) Mamelon et aréole
 (C50.1) Partie centrale du sein
 (C50.2) Quadrant supéro-interne du sein
@@ -817,25 +1038,161 @@
 (C55) Tumeur maligne de l'utérus, partie non précisée
 (C56) Tumeur maligne de l'ovaire
 (C57) Tumeur maligne des organes génitaux de la femme, autres et non précisés
-(C58) Tumeur maligne du placenta
-(C60-C63) Tumeurs malignes, organes génitaux masculins
-(C60) Tumeur maligne de la verge
+(C58) Tumeur maligne du placenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(C60-C63) Tumeurs malignes, organes génitaux masculins</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(C60) Tumeur maligne de la verge
 (C61) Tumeur maligne de la prostate
 (C62) Tumeur maligne du testicule
-(C63) Tumeur maligne des organes génitaux de l'homme, autres et non précisés
-(C64-C68) Tumeurs malignes, voies urinaires
-(C64) Tumeur maligne du rein, à l'exception du bassinet
+(C63) Tumeur maligne des organes génitaux de l'homme, autres et non précisés</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(C64-C68) Tumeurs malignes, voies urinaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(C64) Tumeur maligne du rein, à l'exception du bassinet
 (C65) Tumeur maligne du bassinet
 (C66) Tumeur maligne de l'uretère
 (C67) Tumeur maligne de la vessie
-(C68) Tumeur maligne des organes urinaires, autres et non précisés
-(C69-C72) Tumeurs malignes, œil, cerveau et autres parties du système nerveux central
-(C69) Tumeur maligne de l'œil et de ses annexes
+(C68) Tumeur maligne des organes urinaires, autres et non précisés</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(C69-C72) Tumeurs malignes, œil, cerveau et autres parties du système nerveux central</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(C69) Tumeur maligne de l'œil et de ses annexes
 (C70) Tumeur maligne des méninges
 (C71) Tumeur maligne de l'encéphale
-(C72) Tumeur maligne de la moelle épinière, des nerfs crâniens et d'autres parties du système nerveux central
-(C73-C75) Thyroïde et autres glandes endocrines
-(C73) Tumeur maligne de la thyroïde
+(C72) Tumeur maligne de la moelle épinière, des nerfs crâniens et d'autres parties du système nerveux central</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(C73-C75) Thyroïde et autres glandes endocrines</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(C73) Tumeur maligne de la thyroïde
 (C74) Tumeur maligne de la surrénale
 (C74.0) Cortex de la surrénale
 (C74.1) Médullosurrénale
@@ -848,9 +1205,43 @@
 (C75.4) Corpuscule carotidien
 (C75.5) Glomus aortique et autres paraganglions
 (C75.8) Atteinte pluriglandulaire, sans précision
-(C75.9) Glande endocrine, sans précision
-(C76-C80) Tumeurs malignes de sièges mal définis, secondaires et non précisés
-(C76) Tumeur maligne de sièges autres et mal définis
+(C75.9) Glande endocrine, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(C76-C80) Tumeurs malignes de sièges mal définis, secondaires et non précisés</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(C76) Tumeur maligne de sièges autres et mal définis
 (C76.0) Tête, face et cou
 (C76.1) Thorax
 (C76.2) Abdomen
@@ -889,9 +1280,43 @@
 (C79.7) Tumeur maligne secondaire de la glande surrénale
 (C79.8) Tumeur maligne secondaire d'autres sièges précisés
 (C80) Tumeur maligne de siège non précisé
-(C80.+0) Tumeur maligne primitive de siège inconnu
-(C81-C96) Tumeurs malignes primitives ou présumées primitives, des tissus lymphoïde, hématopoïétique et apparentés
-(C81) Maladie de Hodgkin
+(C80.+0) Tumeur maligne primitive de siège inconnu</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(C81-C96) Tumeurs malignes primitives ou présumées primitives, des tissus lymphoïde, hématopoïétique et apparentés</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(C81) Maladie de Hodgkin
 (C81.0) Prédominance lymphocytaire
 (C81.1) Sclérose nodulaire
 (C81.2) Cellulaire mixte
@@ -982,11 +1407,79 @@
 (C96.2) Tumeur maligne à mastocytes
 (C96.3) Lymphome histiocytaire vrai
 (C96.7) Autres tumeurs malignes précisées des tissus lymphoïde, hématopoïétique et apparentés
-(C96.9) Tumeur maligne des tissus lymphoïde, hématopoïétique et apparentés, sans précision
-(C97) Tumeurs malignes de sièges multiples indépendants (primitifs)
-(C97) Tumeurs malignes de sièges multiples indépendants (primitifs)
-(D00-D09) Tumeurs in situ
-(D00) Carcinome in situ de la cavité buccale, de l’œsophage et de l'estomac
+(C96.9) Tumeur maligne des tissus lymphoïde, hématopoïétique et apparentés, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(C97) Tumeurs malignes de sièges multiples indépendants (primitifs)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(C97) Tumeurs malignes de sièges multiples indépendants (primitifs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(D00-D09) Tumeurs in situ</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(D00) Carcinome in situ de la cavité buccale, de l’œsophage et de l'estomac
 (D00.0) Lèvre, cavité buccale et pharynx
 (D00.1) Œsophage
 (D00.2) Estomac
@@ -1051,9 +1544,43 @@
 (D09.2) Œil
 (D09.3) Thyroïde et autres glandes endocrines
 (D09.7) Carcinome in situ d'autres sièges précisés
-(D09.9) Carcinome in situ, sans précision
-(D10-D36) Tumeurs bénignes
-(D10) Tumeur bénigne de la bouche et du pharynx
+(D09.9) Carcinome in situ, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(D10-D36) Tumeurs bénignes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(D10) Tumeur bénigne de la bouche et du pharynx
 (D10.0) Lèvre
 (D10.1) Langue
 (D10.2) Plancher de la bouche
@@ -1119,9 +1646,43 @@
 (D33) Tumeur bénigne de l'encéphale et d'autres parties du système nerveux central
 (D34) Tumeur bénigne de la thyroïde
 (D35) Tumeur bénigne des glandes endocrines, autres et non précisées
-(D36) Tumeur bénigne de sièges autres et non précisés
-(D37-D48) Tumeurs à évolution imprévisible ou inconnue
-(D37) Tumeur de la cavité buccale et des organes digestifs à évolution imprévisible ou inconnue
+(D36) Tumeur bénigne de sièges autres et non précisés</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_02_:_Tumeurs</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(D37-D48) Tumeurs à évolution imprévisible ou inconnue</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(D37) Tumeur de la cavité buccale et des organes digestifs à évolution imprévisible ou inconnue
 (D38) Tumeur de l'oreille moyenne et des organes respiratoires et intrathoraciques à évolution imprévisible ou inconnue
 (D39) Tumeur des organes génitaux de la femme à évolution imprévisible ou inconnue
 (D40) Tumeur des organes génitaux de l'homme à évolution imprévisible ou inconnue
